--- a/TravelDemandModel/data_engineering/Lookup_Lists/6-digit_2017_Codes.xlsx
+++ b/TravelDemandModel/data_engineering/Lookup_Lists/6-digit_2017_Codes.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcclary\Documents\GitHub\Transportation\TravelDemandModel\data_engineering\Lookup_Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EEF811-E42C-4BC4-8613-5F4ACF584622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1A76E-B26F-47E7-B23A-19B832ED7E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6DDD403F-42BD-47FA-932C-42710DADFDCD}"/>
   </bookViews>
   <sheets>
     <sheet name="2017_6-digit_industries" sheetId="1" r:id="rId1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1169">
   <si>
     <t>Soybean Farming</t>
   </si>
@@ -3544,6 +3545,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Commercial Printing (except Screen and Books), Retail Bakeries,Support Activities for Printing</t>
   </si>
 </sst>
 </file>
@@ -3914,6 +3918,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15567,10 +15572,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B64E126-6D61-4154-A04D-7A965FE0E657}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:L17"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A62" sqref="A62:A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15603,7 +15612,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>215</v>
       </c>
@@ -15630,7 +15639,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>217</v>
       </c>
@@ -15657,7 +15666,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -15684,7 +15693,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -15738,7 +15747,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>221</v>
       </c>
@@ -15765,7 +15774,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -15792,7 +15801,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -15819,7 +15828,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -15846,7 +15855,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>225</v>
       </c>
@@ -15873,7 +15882,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -15900,7 +15909,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>227</v>
       </c>
@@ -15927,7 +15936,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>228</v>
       </c>
@@ -15954,7 +15963,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>229</v>
       </c>
@@ -15981,7 +15990,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>230</v>
       </c>
@@ -16008,7 +16017,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -16035,7 +16044,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -16053,7 +16062,7 @@
         <v>CNS06</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -16071,7 +16080,7 @@
         <v>CNS06</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>234</v>
       </c>
@@ -16089,7 +16098,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>235</v>
       </c>
@@ -16107,7 +16116,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>236</v>
       </c>
@@ -16125,7 +16134,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>237</v>
       </c>
@@ -16143,7 +16152,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>238</v>
       </c>
@@ -16161,7 +16170,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>239</v>
       </c>
@@ -16179,7 +16188,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>240</v>
       </c>
@@ -16197,7 +16206,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>241</v>
       </c>
@@ -16215,7 +16224,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>242</v>
       </c>
@@ -16233,7 +16242,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -16251,7 +16260,7 @@
         <v>CNS06</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>244</v>
       </c>
@@ -16269,7 +16278,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>245</v>
       </c>
@@ -16287,7 +16296,7 @@
         <v>CNS06</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>246</v>
       </c>
@@ -16305,7 +16314,7 @@
         <v>CNS14</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -16323,7 +16332,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -16341,7 +16350,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>249</v>
       </c>
@@ -16359,7 +16368,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -16377,7 +16386,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>251</v>
       </c>
@@ -16395,7 +16404,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>252</v>
       </c>
@@ -16413,7 +16422,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -16431,7 +16440,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>254</v>
       </c>
@@ -16449,7 +16458,7 @@
         <v>CNS06</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>255</v>
       </c>
@@ -16467,7 +16476,7 @@
         <v>CNS06</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>256</v>
       </c>
@@ -16485,7 +16494,7 @@
         <v>CNS06</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>257</v>
       </c>
@@ -16503,7 +16512,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>258</v>
       </c>
@@ -16521,7 +16530,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>259</v>
       </c>
@@ -16539,7 +16548,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>260</v>
       </c>
@@ -16557,7 +16566,7 @@
         <v>CNS06</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>261</v>
       </c>
@@ -16575,7 +16584,7 @@
         <v>CNS05</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>262</v>
       </c>
@@ -16593,7 +16602,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>263</v>
       </c>
@@ -16611,7 +16620,7 @@
         <v>CNS06</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>264</v>
       </c>
@@ -16629,7 +16638,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>265</v>
       </c>
@@ -16647,7 +16656,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -16665,7 +16674,7 @@
         <v>CNS05</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>266</v>
       </c>
@@ -16683,7 +16692,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>267</v>
       </c>
@@ -16701,7 +16710,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>268</v>
       </c>
@@ -16719,7 +16728,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>269</v>
       </c>
@@ -16737,7 +16746,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>270</v>
       </c>
@@ -16755,7 +16764,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>271</v>
       </c>
@@ -16773,7 +16782,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -16791,7 +16800,7 @@
         <v>CNS07</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>275</v>
       </c>
@@ -16809,7 +16818,7 @@
         <v>CNS18</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -16863,7 +16872,7 @@
         <v>CNS19</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>278</v>
       </c>
@@ -16881,7 +16890,7 @@
         <v>CNS05</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -16899,7 +16908,7 @@
         <v>CNS05</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>280</v>
       </c>
@@ -16917,7 +16926,7 @@
         <v>CNS18</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>281</v>
       </c>
@@ -16935,7 +16944,7 @@
         <v>CNS18</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>282</v>
       </c>
@@ -16971,7 +16980,7 @@
         <v>CNS19</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -16989,7 +16998,7 @@
         <v>CNS08</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>284</v>
       </c>
@@ -17025,7 +17034,7 @@
         <v>CNS19</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>286</v>
       </c>
@@ -17043,7 +17052,7 @@
         <v>CNS18</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>204</v>
       </c>
@@ -17061,7 +17070,7 @@
         <v>CNS18</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>288</v>
       </c>
@@ -17079,7 +17088,7 @@
         <v>CNS17</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>289</v>
       </c>
@@ -17097,7 +17106,7 @@
         <v>CNS14</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>290</v>
       </c>
@@ -17115,7 +17124,7 @@
         <v>CNS17</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>199</v>
       </c>
@@ -17133,7 +17142,7 @@
         <v>CNS17</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -17151,7 +17160,7 @@
         <v>CNS17</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>291</v>
       </c>
@@ -17169,7 +17178,7 @@
         <v>CNS09</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>196</v>
       </c>
@@ -17187,7 +17196,7 @@
         <v>CNS17</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>292</v>
       </c>
@@ -17205,7 +17214,7 @@
         <v>CNS18</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>293</v>
       </c>
@@ -17223,7 +17232,7 @@
         <v>CNS17</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -17241,7 +17250,7 @@
         <v>CNS11</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -17259,7 +17268,7 @@
         <v>CNS08</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -17277,7 +17286,7 @@
         <v>CNS08</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>200</v>
       </c>
@@ -17295,7 +17304,7 @@
         <v>CNS17</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>295</v>
       </c>
@@ -17313,7 +17322,7 @@
         <v>CNS15</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -17331,7 +17340,7 @@
         <v>CNS14</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>296</v>
       </c>
@@ -17349,7 +17358,7 @@
         <v>CNS17</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>297</v>
       </c>
@@ -17368,26 +17377,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E91" xr:uid="{7B64E126-6D61-4154-A04D-7A965FE0E657}"/>
+  <autoFilter ref="A1:E91" xr:uid="{7B64E126-6D61-4154-A04D-7A965FE0E657}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="CNS19"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D5CE6F-0210-416D-9B52-9A60DDBE59C9}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>273</v>
       </c>
@@ -17401,23 +17420,35 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>274</v>
       </c>
       <c r="B2" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>287</v>
       </c>
       <c r="B3" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -17425,7 +17456,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>274</v>
       </c>
@@ -17433,23 +17464,35 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>287</v>
       </c>
       <c r="B6" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>298</v>
       </c>
       <c r="B7" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -17457,7 +17500,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -17465,23 +17508,32 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>274</v>
       </c>
       <c r="B10" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>298</v>
       </c>
       <c r="B11" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>298</v>
       </c>
@@ -17489,7 +17541,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -17497,36 +17549,75 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>287</v>
       </c>
       <c r="B14" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>275</v>
+      </c>
+      <c r="J14" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" t="s">
+        <v>281</v>
+      </c>
+      <c r="L14" t="s">
+        <v>282</v>
+      </c>
+      <c r="M14" t="s">
+        <v>284</v>
+      </c>
+      <c r="N14" t="s">
+        <v>286</v>
+      </c>
+      <c r="O14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>298</v>
       </c>
       <c r="B15" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>274</v>
       </c>
       <c r="B16" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>287</v>
       </c>
       <c r="B17" t="s">
         <v>1147</v>
+      </c>
+      <c r="I17" t="s">
+        <v>276</v>
+      </c>
+      <c r="J17" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L17" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -17539,7 +17630,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
